--- a/flood_fig_plans.xlsx
+++ b/flood_fig_plans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B98A44-59AA-44FB-828D-3505E4CB93AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CABC0A-3463-4B79-A692-DCCF4F9AC4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/flood_fig_plans.xlsx
+++ b/flood_fig_plans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CABC0A-3463-4B79-A692-DCCF4F9AC4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82370CA3-FCA1-4A5E-869A-B4E907395DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A47E1A-D9EC-4773-806B-C00D55A8027C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>fig 1</t>
   </si>
@@ -52,88 +52,43 @@
     <t>fig 4</t>
   </si>
   <si>
-    <t>fig 5</t>
-  </si>
-  <si>
-    <t>fig 6</t>
-  </si>
-  <si>
-    <t>fig 7</t>
-  </si>
-  <si>
-    <t>fig 8</t>
-  </si>
-  <si>
-    <t>fig 9</t>
-  </si>
-  <si>
-    <t>fig 10</t>
-  </si>
-  <si>
-    <t>fig 11</t>
-  </si>
-  <si>
-    <t>fig 12</t>
-  </si>
-  <si>
-    <t>fig 13</t>
-  </si>
-  <si>
-    <t>fig 14</t>
-  </si>
-  <si>
     <t>what is it</t>
   </si>
   <si>
     <t>what purpose</t>
   </si>
   <si>
-    <t>describes area and relevant channel stuff</t>
-  </si>
-  <si>
-    <t>shows sediment sizes in the different channel sections for lc 1 and 3</t>
-  </si>
-  <si>
-    <t>shows sediment size affects channel geo</t>
-  </si>
-  <si>
-    <t>climate data</t>
-  </si>
-  <si>
-    <t>shows frequency of different storms in LC</t>
-  </si>
-  <si>
-    <t>time and storm size it takes to move minimum, avg, max sediment in different channel sections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">links relevant geomorphic work to time </t>
-  </si>
-  <si>
-    <t>percent of material removed from different channel sections for different storms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material removed (min, max, avg) for different slope, chi, and drainage area </t>
-  </si>
-  <si>
-    <t xml:space="preserve">material deposited (min, max, avg) for different slope, chi, and drainage area </t>
-  </si>
-  <si>
-    <t>map of lc1 and lc3 highlighting channels</t>
-  </si>
-  <si>
-    <t>frequency and cum frequency of sediment size in diff channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make methods fig of pretty ortho and DEM </t>
-  </si>
-  <si>
-    <t>ksn and slope change with sediment size (avg, max, std dev etc)</t>
-  </si>
-  <si>
-    <t>plot info about hydrographs and shear stresses produced</t>
-  </si>
-  <si>
-    <t>slope vs diameters (max and avg)</t>
+    <t>lc1, lc3 map, with sed size cum frequency, diameter of sediment on ksn</t>
+  </si>
+  <si>
+    <t>area and that we have established effect of sediment on landscape morphology</t>
+  </si>
+  <si>
+    <t>how ofen sediment and how much sediment is transported by a strom</t>
+  </si>
+  <si>
+    <t>describes how often hillslope contributes sediment to channel</t>
+  </si>
+  <si>
+    <t>residence time required for differently sized alluvium to steepen channel</t>
+  </si>
+  <si>
+    <t>maximum sediment size mobilized by different storms (b4 and after climate change) by drainage area and slope</t>
+  </si>
+  <si>
+    <t>describes the time scale at which sediment can armor channel</t>
+  </si>
+  <si>
+    <t>if large sediment steepen channel, how large does it need to be</t>
+  </si>
+  <si>
+    <t>for fig 4, if u have a relationaship between sediment size (boulders and d50) and ksn (or slope)</t>
+  </si>
+  <si>
+    <t>then you can replace sediment size with residence time in channel (based on RI)</t>
+  </si>
+  <si>
+    <t>try and do this with climate change, argue that climate change can wipe out the signal sediment has on landscape morphology</t>
   </si>
 </sst>
 </file>
@@ -510,25 +465,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59266CAB-51C5-4911-836C-5738DAE33FA7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -536,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -547,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -558,10 +513,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,94 +524,29 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{59266CAB-51C5-4911-836C-5738DAE33FA7}">
+  <autoFilter ref="A1:C11" xr:uid="{59266CAB-51C5-4911-836C-5738DAE33FA7}">
     <filterColumn colId="1">
       <colorFilter dxfId="0"/>
     </filterColumn>
